--- a/Data Analysis (Query results).xlsx
+++ b/Data Analysis (Query results).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>Year</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -474,27 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,51 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,12 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -606,9 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,11 +554,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,41 +923,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -962,14 +965,14 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>55755479.590000004</v>
       </c>
       <c r="C8" s="1"/>
@@ -991,24 +994,24 @@
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="13">
         <v>55755479.590000004</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>23092791.210000001</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>32662688.379999999</v>
       </c>
     </row>
@@ -1021,98 +1024,98 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="53">
         <v>197757</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="53"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="10">
         <v>2016</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="11">
         <v>6946793.5599999996</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="B24" s="4">
         <v>2017</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="5">
         <v>7421422.2699999996</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>6.83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>2018</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="5">
         <v>12788960.66</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="6">
         <v>72.319999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="B26" s="4">
         <v>2019</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="5">
         <v>18264382.48</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="6">
         <v>42.81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="4">
         <v>2020</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="5">
         <v>9294632.1400000006</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="6">
         <v>-49.11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="7">
         <v>2021</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="8">
         <v>1039288.48</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="9">
         <v>-88.82</v>
       </c>
     </row>
@@ -1120,83 +1123,83 @@
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="4">
         <v>2016</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="5">
         <v>4107000.47</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="B35" s="4">
         <v>2017</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="5">
         <v>4337064.0599999996</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="6">
         <v>5.6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="4">
         <v>2018</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="5">
         <v>7464961.1100000003</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>72.12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+      <c r="B37" s="4">
         <v>2019</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="5">
         <v>10697738.9</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="6">
         <v>43.31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="B38" s="4">
         <v>2020</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="5">
         <v>5447460.1500000004</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>-49.08</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="7">
         <v>2021</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="8">
         <v>608463.68999999994</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="9">
         <v>-88.83</v>
       </c>
     </row>
@@ -1204,83 +1207,83 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="B44" s="10">
         <v>2016</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="11">
         <v>21761</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+      <c r="B45" s="4">
         <v>2017</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="5">
         <v>24798</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="6">
         <v>13.96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
+      <c r="B46" s="4">
         <v>2018</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="5">
         <v>44498</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="6">
         <v>79.44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+      <c r="B47" s="4">
         <v>2019</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="5">
         <v>68440</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="6">
         <v>53.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="9">
+      <c r="B48" s="4">
         <v>2020</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="5">
         <v>34463</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="6">
         <v>-49.64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="8">
         <v>3797</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="9">
         <v>-88.98</v>
       </c>
     </row>
@@ -1288,19 +1291,19 @@
       <c r="A51">
         <v>7</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>26326</v>
       </c>
     </row>
@@ -1308,19 +1311,19 @@
       <c r="A56">
         <v>8</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>2117.89</v>
       </c>
     </row>
@@ -1328,117 +1331,117 @@
       <c r="A61">
         <v>9</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="31"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="28"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="25">
+      <c r="B64" s="46">
         <v>7.51</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="46"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="31"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="15">
+      <c r="B69" s="10">
         <v>1</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="12">
         <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="9">
+      <c r="B70" s="4">
         <v>2</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="6">
         <v>2758</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="9">
+      <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="6">
         <v>3558</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="9">
+      <c r="B72" s="4">
         <v>4</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>4678</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
+      <c r="B73" s="4">
         <v>5</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="6">
         <v>5074</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="9">
+      <c r="B74" s="4">
         <v>6</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>3541</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="7">
         <v>7</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="9">
         <v>6264</v>
       </c>
     </row>
@@ -1446,152 +1449,152 @@
       <c r="A77">
         <v>11</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="15">
+      <c r="B80" s="10">
         <v>1</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="12">
         <v>3198</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="9">
+      <c r="B81" s="4">
         <v>2</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="6">
         <v>3536</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="9">
+      <c r="B82" s="4">
         <v>3</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="6">
         <v>1150</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="9">
+      <c r="B83" s="4">
         <v>4</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="6">
         <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="9">
+      <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="6">
         <v>2203</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="9">
+      <c r="B85" s="4">
         <v>6</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="6">
         <v>2117</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="9">
+      <c r="B86" s="4">
         <v>7</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="6">
         <v>1856</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="9">
+      <c r="B87" s="4">
         <v>8</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="6">
         <v>1994</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="9">
+      <c r="B88" s="4">
         <v>9</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="6">
         <v>2070</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="9">
+      <c r="B89" s="4">
         <v>10</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="6">
         <v>2153</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="9">
+      <c r="B90" s="4">
         <v>11</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="6">
         <v>2149</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="12">
+      <c r="B91" s="7">
         <v>12</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="9">
         <v>3635</v>
       </c>
     </row>
@@ -1599,45 +1602,45 @@
       <c r="A93">
         <v>12</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="49" t="s">
+      <c r="C95" s="28"/>
+      <c r="D95" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="17">
+      <c r="C96" s="47"/>
+      <c r="D96" s="12">
         <v>445745.65</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="11">
+      <c r="C97" s="41"/>
+      <c r="D97" s="6">
         <v>159454.04</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="14">
+      <c r="C98" s="42"/>
+      <c r="D98" s="9">
         <v>129196.99</v>
       </c>
     </row>
@@ -1645,45 +1648,45 @@
       <c r="A100">
         <v>13</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="49" t="s">
+      <c r="C102" s="28"/>
+      <c r="D102" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="21">
+      <c r="C103" s="44"/>
+      <c r="D103" s="16">
         <v>15155.18</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="22">
+      <c r="C104" s="45"/>
+      <c r="D104" s="17">
         <v>43296.9</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="23">
+      <c r="C105" s="39"/>
+      <c r="D105" s="18">
         <v>67405.78</v>
       </c>
     </row>
@@ -1691,45 +1694,45 @@
       <c r="A107">
         <v>14</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="49" t="s">
+      <c r="C109" s="28"/>
+      <c r="D109" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="17">
+      <c r="C110" s="33"/>
+      <c r="D110" s="12">
         <v>982</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="11">
+      <c r="C111" s="35"/>
+      <c r="D111" s="6">
         <v>738</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="14">
+      <c r="C112" s="37"/>
+      <c r="D112" s="9">
         <v>587</v>
       </c>
     </row>
@@ -1737,45 +1740,45 @@
       <c r="A114">
         <v>15</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="51"/>
-      <c r="D116" s="49" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="17">
+      <c r="C117" s="33"/>
+      <c r="D117" s="12">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="11">
+      <c r="C118" s="35"/>
+      <c r="D118" s="6">
         <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="14">
+      <c r="C119" s="37"/>
+      <c r="D119" s="9">
         <v>310</v>
       </c>
     </row>
@@ -1783,45 +1786,45 @@
       <c r="A121">
         <v>16</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="51"/>
-      <c r="D123" s="49" t="s">
+      <c r="C123" s="28"/>
+      <c r="D123" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="17">
+      <c r="C124" s="33"/>
+      <c r="D124" s="12">
         <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="11">
+      <c r="C125" s="35"/>
+      <c r="D125" s="6">
         <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="38"/>
-      <c r="D126" s="14">
+      <c r="C126" s="37"/>
+      <c r="D126" s="9">
         <v>152</v>
       </c>
     </row>
@@ -1829,45 +1832,45 @@
       <c r="A128">
         <v>17</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="51"/>
-      <c r="D130" s="49" t="s">
+      <c r="C130" s="28"/>
+      <c r="D130" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="34"/>
-      <c r="D131" s="17">
+      <c r="C131" s="33"/>
+      <c r="D131" s="12">
         <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="36"/>
-      <c r="D132" s="11">
+      <c r="C132" s="35"/>
+      <c r="D132" s="6">
         <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="14">
+      <c r="C133" s="37"/>
+      <c r="D133" s="9">
         <v>92</v>
       </c>
     </row>
@@ -1875,25 +1878,25 @@
       <c r="A135">
         <v>18</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="50" t="s">
+      <c r="C137" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C138" s="40">
+      <c r="C138" s="20">
         <v>1776692.75</v>
       </c>
     </row>
@@ -1901,25 +1904,25 @@
       <c r="A140">
         <v>19</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="49" t="s">
+      <c r="B142" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="15">
         <v>7185.39</v>
       </c>
     </row>
@@ -1927,25 +1930,25 @@
       <c r="A145">
         <v>20</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C148" s="20">
+      <c r="C148" s="15">
         <v>59511.9</v>
       </c>
     </row>
@@ -1953,51 +1956,81 @@
       <c r="A150">
         <v>21</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="49" t="s">
+      <c r="B152" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D152" s="49" t="s">
+      <c r="D152" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E152" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F152" s="51"/>
+      <c r="F152" s="28"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D153" s="44">
+      <c r="D153" s="22">
         <v>34355</v>
       </c>
-      <c r="E153" s="42">
+      <c r="E153" s="29">
         <v>25451.97</v>
       </c>
-      <c r="F153" s="43"/>
+      <c r="F153" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B131:C131"/>
     <mergeCell ref="B132:C132"/>
     <mergeCell ref="B133:C133"/>
@@ -2008,41 +2041,11 @@
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B150:F150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
